--- a/liquidacion.xlsx
+++ b/liquidacion.xlsx
@@ -370,176 +370,512 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mv="urn:schemas-microsoft-com:mac:vml">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L14"/>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="false">
+    <row r="1" spans="1:12" customFormat="false">
       <c r="A1" s="0" t="str">
+        <v>id obra</v>
+      </c>
+      <c r="B1" s="0" t="str">
         <v>obra</v>
       </c>
-      <c r="B1" s="0" t="str">
+      <c r="C1" s="0" t="str">
+        <v>id autor</v>
+      </c>
+      <c r="D1" s="0" t="str">
+        <v>nombre autor</v>
+      </c>
+      <c r="E1" s="0" t="str">
+        <v>grupo interprete</v>
+      </c>
+      <c r="F1" s="0" t="str">
         <v>territorio</v>
       </c>
-      <c r="C1" s="0" t="str">
-        <v>fonograma</v>
-      </c>
-      <c r="D1" s="0" t="str">
-        <v>porcentaje_subeditor</v>
-      </c>
-      <c r="E1" s="0" t="str">
+      <c r="G1" s="0" t="str">
         <v>porcentaje_autor</v>
       </c>
-      <c r="F1" s="0" t="str">
+      <c r="H1" s="0" t="str">
         <v>porcentaje_editora</v>
       </c>
-      <c r="G1" s="0" t="str">
-        <v>porcentaje_autor_internacional</v>
-      </c>
-      <c r="H1" s="0" t="str">
-        <v>porcentaje_editora_internacional</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="false">
+      <c r="I1" s="0" t="str">
+        <v>valor autor</v>
+      </c>
+      <c r="J1" s="0" t="str">
+        <v>valor editora</v>
+      </c>
+      <c r="K1" s="0" t="str">
+        <v>valor reportado</v>
+      </c>
+      <c r="L1" s="0" t="str">
+        <v>catalogo</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" customFormat="false">
       <c r="A2" s="0" t="str">
-        <v>El Pibe De Mi Barrio</v>
-      </c>
-      <c r="B2" s="0"/>
+        <v>90</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <v>ME LLAMAS</v>
+      </c>
       <c r="C2" s="0">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="E2" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="F2" s="0">
-        <v>1368.0120547882332</v>
-      </c>
+        <v>1039452832</v>
+      </c>
+      <c r="D2" s="0" t="str">
+        <v>CASTANO MONTOYA JUAN DAVID</v>
+      </c>
+      <c r="E2" s="0" t="str">
+        <v>Piso 21</v>
+      </c>
+      <c r="F2" s="0"/>
       <c r="G2" s="0">
-        <v>1368.0120547882332</v>
+        <v>0.1675</v>
       </c>
       <c r="H2" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="false">
+        <v>0.33</v>
+      </c>
+      <c r="I2" s="0">
+        <v>35.80344049641079</v>
+      </c>
+      <c r="J2" s="0">
+        <v>70.53812157501828</v>
+      </c>
+      <c r="K2" s="0">
+        <v>213.75188356066144</v>
+      </c>
+      <c r="L2" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" customFormat="false">
       <c r="A3" s="0" t="str">
-        <v>Me Llamas</v>
-      </c>
-      <c r="B3" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
       <c r="C3" s="0">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="E3" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="F3" s="0">
-        <v>44.8878955477389</v>
-      </c>
+        <v>80180584</v>
+      </c>
+      <c r="D3" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E3" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F3" s="0"/>
       <c r="G3" s="0">
-        <v>44.8878955477389</v>
+        <v>0.1</v>
       </c>
       <c r="H3" s="0">
-        <v>44.8878955477389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="false">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J3" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K3" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L3" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" customFormat="false">
       <c r="A4" s="0" t="str">
-        <v>El Pibe De Mi Barrio</v>
-      </c>
-      <c r="B4" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
       <c r="C4" s="0">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="E4" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="F4" s="0">
-        <v>1368.0120547882332</v>
-      </c>
+        <v>80180584</v>
+      </c>
+      <c r="D4" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E4" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F4" s="0"/>
       <c r="G4" s="0">
-        <v>1368.0120547882332</v>
+        <v>0.1</v>
       </c>
       <c r="H4" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="false">
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J4" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K4" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L4" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" customFormat="false">
       <c r="A5" s="0" t="str">
-        <v>Me Llamas</v>
-      </c>
-      <c r="B5" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
       <c r="C5" s="0">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="E5" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="F5" s="0">
-        <v>44.8878955477389</v>
-      </c>
+        <v>80180584</v>
+      </c>
+      <c r="D5" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E5" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F5" s="0"/>
       <c r="G5" s="0">
-        <v>44.8878955477389</v>
+        <v>0.1</v>
       </c>
       <c r="H5" s="0">
-        <v>44.8878955477389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="false">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J5" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K5" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L5" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" customFormat="false">
       <c r="A6" s="0" t="str">
-        <v>El Pibe De Mi Barrio</v>
-      </c>
-      <c r="B6" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
       <c r="C6" s="0">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="E6" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-      <c r="F6" s="0">
-        <v>1368.0120547882332</v>
-      </c>
+        <v>80180584</v>
+      </c>
+      <c r="D6" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E6" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F6" s="0"/>
       <c r="G6" s="0">
-        <v>1368.0120547882332</v>
+        <v>0.1</v>
       </c>
       <c r="H6" s="0">
-        <v>1368.0120547882332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="false">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J6" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K6" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L6" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" customFormat="false">
       <c r="A7" s="0" t="str">
-        <v>Me Llamas</v>
-      </c>
-      <c r="B7" s="0"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
       <c r="C7" s="0">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="E7" s="0">
-        <v>44.8878955477389</v>
-      </c>
-      <c r="F7" s="0">
-        <v>44.8878955477389</v>
-      </c>
+        <v>80180584</v>
+      </c>
+      <c r="D7" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E7" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="0">
-        <v>44.8878955477389</v>
+        <v>0.1</v>
       </c>
       <c r="H7" s="0">
-        <v>44.8878955477389</v>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J7" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K7" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L7" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" customFormat="false">
+      <c r="A8" s="0" t="str">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <v>MI SOL</v>
+      </c>
+      <c r="C8" s="0">
+        <v>80180584</v>
+      </c>
+      <c r="D8" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E8" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="0">
+        <v>1282.5113013639686</v>
+      </c>
+      <c r="J8" s="0">
+        <v>6412.556506819843</v>
+      </c>
+      <c r="K8" s="0">
+        <v>12825.113013639686</v>
+      </c>
+      <c r="L8" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" customFormat="false">
+      <c r="A9" s="0" t="str">
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <v>EXIGIMOS</v>
+      </c>
+      <c r="C9" s="0">
+        <v>80180584</v>
+      </c>
+      <c r="D9" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E9" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="0">
+        <v>427.5037671213229</v>
+      </c>
+      <c r="J9" s="0">
+        <v>2137.518835606614</v>
+      </c>
+      <c r="K9" s="0">
+        <v>4275.037671213228</v>
+      </c>
+      <c r="L9" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" customFormat="false">
+      <c r="A10" s="0" t="str">
+        <v>19</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <v>EXIGIMOS</v>
+      </c>
+      <c r="C10" s="0">
+        <v>80180584</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E10" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="0">
+        <v>427.5037671213229</v>
+      </c>
+      <c r="J10" s="0">
+        <v>2137.518835606614</v>
+      </c>
+      <c r="K10" s="0">
+        <v>4275.037671213228</v>
+      </c>
+      <c r="L10" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" customFormat="false">
+      <c r="A11" s="0" t="str">
+        <v>8</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <v>BUSCANDO EL AMOR</v>
+      </c>
+      <c r="C11" s="0">
+        <v>80180584</v>
+      </c>
+      <c r="D11" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E11" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="0">
+        <v>427.5037671213229</v>
+      </c>
+      <c r="J11" s="0">
+        <v>2137.518835606614</v>
+      </c>
+      <c r="K11" s="0">
+        <v>4275.037671213228</v>
+      </c>
+      <c r="L11" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" customFormat="false">
+      <c r="A12" s="0" t="str">
+        <v>8</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <v>BUSCANDO EL AMOR</v>
+      </c>
+      <c r="C12" s="0">
+        <v>80180584</v>
+      </c>
+      <c r="D12" s="0" t="str">
+        <v>Autor no reconocido</v>
+      </c>
+      <c r="E12" s="0" t="str">
+        <v>Doctor Krápula</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="0">
+        <v>427.5037671213229</v>
+      </c>
+      <c r="J12" s="0">
+        <v>2137.518835606614</v>
+      </c>
+      <c r="K12" s="0">
+        <v>4275.037671213228</v>
+      </c>
+      <c r="L12" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" customFormat="false">
+      <c r="A13" s="0" t="str">
+        <v>90</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <v>ME LLAMAS</v>
+      </c>
+      <c r="C13" s="0">
+        <v>1039452832</v>
+      </c>
+      <c r="D13" s="0" t="str">
+        <v>CASTANO MONTOYA JUAN DAVID</v>
+      </c>
+      <c r="E13" s="0" t="str">
+        <v>Piso 21</v>
+      </c>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0">
+        <v>0.1675</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="I13" s="0">
+        <v>143.21376198564317</v>
+      </c>
+      <c r="J13" s="0">
+        <v>282.1524863000731</v>
+      </c>
+      <c r="K13" s="0">
+        <v>855.0075342426458</v>
+      </c>
+      <c r="L13" s="0" t="str">
+        <v>STAR ARSIS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" customFormat="false">
+      <c r="A14" s="0" t="str">
+        <v>90</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <v>ME LLAMAS</v>
+      </c>
+      <c r="C14" s="0">
+        <v>1039452832</v>
+      </c>
+      <c r="D14" s="0" t="str">
+        <v>CASTANO MONTOYA JUAN DAVID</v>
+      </c>
+      <c r="E14" s="0" t="str">
+        <v>Piso 21</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0">
+        <v>0.1675</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.33</v>
+      </c>
+      <c r="I14" s="0">
+        <v>143.21376198564317</v>
+      </c>
+      <c r="J14" s="0">
+        <v>282.1524863000731</v>
+      </c>
+      <c r="K14" s="0">
+        <v>855.0075342426458</v>
+      </c>
+      <c r="L14" s="0" t="str">
+        <v>STAR ARSIS</v>
       </c>
     </row>
   </sheetData>
